--- a/data/pca/factorExposure/factorExposure_2011-08-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,24 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +741,69 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.01867820989686383</v>
+        <v>0.01717194689937563</v>
       </c>
       <c r="C2">
-        <v>-0.00929930498083752</v>
+        <v>-0.004511745799982594</v>
       </c>
       <c r="D2">
-        <v>-0.03438666836694058</v>
+        <v>0.02849949296406909</v>
       </c>
       <c r="E2">
-        <v>-0.06940214999037649</v>
+        <v>0.03385324150619598</v>
       </c>
       <c r="F2">
-        <v>0.03579065386342254</v>
+        <v>0.0237459042998241</v>
       </c>
       <c r="G2">
-        <v>0.04577012625266604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.01402817192321612</v>
+      </c>
+      <c r="H2">
+        <v>-0.02322928109824495</v>
+      </c>
+      <c r="I2">
+        <v>0.0326743047295046</v>
+      </c>
+      <c r="J2">
+        <v>-0.0009976224202596254</v>
+      </c>
+      <c r="K2">
+        <v>-0.07369127293253916</v>
+      </c>
+      <c r="L2">
+        <v>0.02229049925684345</v>
+      </c>
+      <c r="M2">
+        <v>0.005463060705300268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +823,69 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.06476828463561171</v>
+        <v>0.09152632765020215</v>
       </c>
       <c r="C4">
-        <v>-0.0600559409370086</v>
+        <v>-0.06984056225174283</v>
       </c>
       <c r="D4">
-        <v>-0.04035933544660148</v>
+        <v>0.009373922249558242</v>
       </c>
       <c r="E4">
-        <v>-0.02147315037909167</v>
+        <v>0.05059524127345552</v>
       </c>
       <c r="F4">
-        <v>0.04072455111490547</v>
+        <v>0.09410987940563795</v>
       </c>
       <c r="G4">
-        <v>-0.0319708327607521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03265604351444443</v>
+      </c>
+      <c r="H4">
+        <v>-0.02229527002081709</v>
+      </c>
+      <c r="I4">
+        <v>-0.07463926234702416</v>
+      </c>
+      <c r="J4">
+        <v>-0.01683772244509974</v>
+      </c>
+      <c r="K4">
+        <v>0.03774369371270592</v>
+      </c>
+      <c r="L4">
+        <v>-0.05727841843870676</v>
+      </c>
+      <c r="M4">
+        <v>-0.03000655204700304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +905,479 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1250872212775852</v>
+        <v>0.1290995153314603</v>
       </c>
       <c r="C6">
-        <v>-0.043517890511967</v>
+        <v>-0.04104576238296175</v>
       </c>
       <c r="D6">
-        <v>-0.05060011683256904</v>
+        <v>0.04285468452687553</v>
       </c>
       <c r="E6">
-        <v>-0.07639602298667114</v>
+        <v>0.0123071968246541</v>
       </c>
       <c r="F6">
-        <v>0.04830175917724896</v>
+        <v>0.07101397100441285</v>
       </c>
       <c r="G6">
-        <v>-0.01020524836104094</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.04135770195475338</v>
+      </c>
+      <c r="H6">
+        <v>0.1599942623637682</v>
+      </c>
+      <c r="I6">
+        <v>-0.06320027283312127</v>
+      </c>
+      <c r="J6">
+        <v>-0.4251388986952802</v>
+      </c>
+      <c r="K6">
+        <v>0.1771262077547135</v>
+      </c>
+      <c r="L6">
+        <v>0.04343585043353165</v>
+      </c>
+      <c r="M6">
+        <v>-0.03933791753878854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.06607072999235218</v>
+        <v>0.06639883004824799</v>
       </c>
       <c r="C7">
-        <v>-0.04714764771256297</v>
+        <v>-0.06893615305151642</v>
       </c>
       <c r="D7">
-        <v>-0.04175990242030115</v>
+        <v>0.03195143158366594</v>
       </c>
       <c r="E7">
-        <v>-0.05653484854817126</v>
+        <v>0.03647211129935764</v>
       </c>
       <c r="F7">
-        <v>0.02395205276932259</v>
+        <v>0.03081926511925603</v>
       </c>
       <c r="G7">
-        <v>-0.04767909958822566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.006051083724681978</v>
+      </c>
+      <c r="H7">
+        <v>-0.001025971581009138</v>
+      </c>
+      <c r="I7">
+        <v>-0.05055087365359591</v>
+      </c>
+      <c r="J7">
+        <v>0.06746726906227123</v>
+      </c>
+      <c r="K7">
+        <v>-0.01080150461916171</v>
+      </c>
+      <c r="L7">
+        <v>-0.06505581034675934</v>
+      </c>
+      <c r="M7">
+        <v>0.02731729847623518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.02179361172681487</v>
+        <v>0.03398857189515181</v>
       </c>
       <c r="C8">
-        <v>-0.02349539304293903</v>
+        <v>-0.01175290209047058</v>
       </c>
       <c r="D8">
-        <v>-0.004052453226847957</v>
+        <v>-0.001784723855896914</v>
       </c>
       <c r="E8">
-        <v>-0.04514541777764282</v>
+        <v>0.06998005572389306</v>
       </c>
       <c r="F8">
-        <v>0.07124099915198226</v>
+        <v>0.06014980221134632</v>
       </c>
       <c r="G8">
-        <v>0.007481749327095351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05138773410142983</v>
+      </c>
+      <c r="H8">
+        <v>-0.001806343695615479</v>
+      </c>
+      <c r="I8">
+        <v>-0.09097271881162566</v>
+      </c>
+      <c r="J8">
+        <v>-0.009766029263672369</v>
+      </c>
+      <c r="K8">
+        <v>0.05428951988252173</v>
+      </c>
+      <c r="L8">
+        <v>-0.04351370413284041</v>
+      </c>
+      <c r="M8">
+        <v>-0.05743009208336106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.0666825484515325</v>
+        <v>0.08132194217232663</v>
       </c>
       <c r="C9">
-        <v>-0.06961205848033712</v>
+        <v>-0.06411206828548698</v>
       </c>
       <c r="D9">
-        <v>-0.04280961057229569</v>
+        <v>0.01311176192428456</v>
       </c>
       <c r="E9">
-        <v>-0.02550538436152099</v>
+        <v>0.03695629411643975</v>
       </c>
       <c r="F9">
-        <v>0.03001493204484125</v>
+        <v>0.0814668961952954</v>
       </c>
       <c r="G9">
-        <v>-0.007286800723947813</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04385165919887969</v>
+      </c>
+      <c r="H9">
+        <v>-0.01718995500285569</v>
+      </c>
+      <c r="I9">
+        <v>-0.08803799282876819</v>
+      </c>
+      <c r="J9">
+        <v>-0.004800884596705531</v>
+      </c>
+      <c r="K9">
+        <v>0.02039714328004821</v>
+      </c>
+      <c r="L9">
+        <v>-0.02148225164889817</v>
+      </c>
+      <c r="M9">
+        <v>-0.03611949874111964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.05497266139621683</v>
+        <v>0.105283734474248</v>
       </c>
       <c r="C10">
-        <v>0.121205652643315</v>
+        <v>0.1665419419156203</v>
       </c>
       <c r="D10">
-        <v>0.03142784952385591</v>
+        <v>0.008577189147459346</v>
       </c>
       <c r="E10">
-        <v>-0.06825338695177005</v>
+        <v>0.05760346738787986</v>
       </c>
       <c r="F10">
-        <v>0.03239416423825925</v>
+        <v>0.01083568907355275</v>
       </c>
       <c r="G10">
-        <v>-0.02092517803217816</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.03885381803799439</v>
+      </c>
+      <c r="H10">
+        <v>0.02213708523195019</v>
+      </c>
+      <c r="I10">
+        <v>0.01379504622471985</v>
+      </c>
+      <c r="J10">
+        <v>0.04244569724805501</v>
+      </c>
+      <c r="K10">
+        <v>-0.03888192552457401</v>
+      </c>
+      <c r="L10">
+        <v>-0.02524955861700327</v>
+      </c>
+      <c r="M10">
+        <v>-0.09641151413352946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.06189355375884099</v>
+        <v>0.06620015618895736</v>
       </c>
       <c r="C11">
-        <v>-0.072820403499188</v>
+        <v>-0.06487899770067262</v>
       </c>
       <c r="D11">
-        <v>-0.04808426004780555</v>
+        <v>0.02758760538100224</v>
       </c>
       <c r="E11">
-        <v>-0.03621126707890405</v>
+        <v>0.02377420469991806</v>
       </c>
       <c r="F11">
-        <v>0.0008002897677440786</v>
+        <v>0.06074073685643271</v>
       </c>
       <c r="G11">
-        <v>0.03620250365124392</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.06958998883202699</v>
+      </c>
+      <c r="H11">
+        <v>-0.01776770570775384</v>
+      </c>
+      <c r="I11">
+        <v>-0.07124098223987282</v>
+      </c>
+      <c r="J11">
+        <v>0.0838130807651009</v>
+      </c>
+      <c r="K11">
+        <v>-0.05712787756263404</v>
+      </c>
+      <c r="L11">
+        <v>0.03158272455494176</v>
+      </c>
+      <c r="M11">
+        <v>-0.09509751410994051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.05738504291886563</v>
+        <v>0.06640260870468546</v>
       </c>
       <c r="C12">
-        <v>-0.04478124938534253</v>
+        <v>-0.05463748462932968</v>
       </c>
       <c r="D12">
-        <v>-0.02725836395594669</v>
+        <v>0.007818228880054031</v>
       </c>
       <c r="E12">
-        <v>-0.01998956073382851</v>
+        <v>0.0220344473210769</v>
       </c>
       <c r="F12">
-        <v>0.01230526845403425</v>
+        <v>0.05031983328086494</v>
       </c>
       <c r="G12">
-        <v>-0.02226011483753812</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.06868537785427818</v>
+      </c>
+      <c r="H12">
+        <v>-0.01570996318675111</v>
+      </c>
+      <c r="I12">
+        <v>-0.09073121667266713</v>
+      </c>
+      <c r="J12">
+        <v>0.06124625318273264</v>
+      </c>
+      <c r="K12">
+        <v>-0.06467582218183206</v>
+      </c>
+      <c r="L12">
+        <v>-0.009296445119264418</v>
+      </c>
+      <c r="M12">
+        <v>-0.1332377482422007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.06150107513656965</v>
+        <v>0.05539104698225255</v>
       </c>
       <c r="C13">
-        <v>-0.02822924335891682</v>
+        <v>-0.03872077886401868</v>
       </c>
       <c r="D13">
-        <v>0.008742701170807115</v>
+        <v>-0.01571796154868555</v>
       </c>
       <c r="E13">
-        <v>-0.02147008015383181</v>
+        <v>0.03543297935257755</v>
       </c>
       <c r="F13">
-        <v>0.02923524183867836</v>
+        <v>0.009152284344609069</v>
       </c>
       <c r="G13">
-        <v>0.01205917498449774</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.03640842608627643</v>
+      </c>
+      <c r="H13">
+        <v>-0.01675214493858464</v>
+      </c>
+      <c r="I13">
+        <v>-0.06189856233441297</v>
+      </c>
+      <c r="J13">
+        <v>0.0112533450751856</v>
+      </c>
+      <c r="K13">
+        <v>0.03865776442743146</v>
+      </c>
+      <c r="L13">
+        <v>-0.02756980135836702</v>
+      </c>
+      <c r="M13">
+        <v>0.0865446100196865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.03255795818226271</v>
+        <v>0.04290924170185317</v>
       </c>
       <c r="C14">
-        <v>-0.004502547458172919</v>
+        <v>-0.0194089874879615</v>
       </c>
       <c r="D14">
-        <v>-0.0409631347330784</v>
+        <v>0.0165155302325576</v>
       </c>
       <c r="E14">
-        <v>-0.009020879109104839</v>
+        <v>0.007161126686100849</v>
       </c>
       <c r="F14">
-        <v>0.01466473466419248</v>
+        <v>0.05949166195018589</v>
       </c>
       <c r="G14">
-        <v>-0.006457268157197828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02161155342091908</v>
+      </c>
+      <c r="H14">
+        <v>-0.04559133322271661</v>
+      </c>
+      <c r="I14">
+        <v>-0.06921250943554885</v>
+      </c>
+      <c r="J14">
+        <v>-0.00407798996729941</v>
+      </c>
+      <c r="K14">
+        <v>0.04195256957527936</v>
+      </c>
+      <c r="L14">
+        <v>-0.02869318476101674</v>
+      </c>
+      <c r="M14">
+        <v>0.007951188723828035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.04388031576356644</v>
+        <v>0.03654979700185264</v>
       </c>
       <c r="C15">
-        <v>-0.01228874124141016</v>
+        <v>-0.0144944118608736</v>
       </c>
       <c r="D15">
-        <v>0.01220461943302169</v>
+        <v>-0.02219145855718143</v>
       </c>
       <c r="E15">
-        <v>-0.001053593820107896</v>
+        <v>0.005837291434222354</v>
       </c>
       <c r="F15">
-        <v>0.02560340452756196</v>
+        <v>0.01385579712083458</v>
       </c>
       <c r="G15">
-        <v>-0.01196140021398478</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.0121425506817417</v>
+      </c>
+      <c r="H15">
+        <v>-0.0006514592345877205</v>
+      </c>
+      <c r="I15">
+        <v>-0.0447661661542465</v>
+      </c>
+      <c r="J15">
+        <v>-0.004587113500486676</v>
+      </c>
+      <c r="K15">
+        <v>0.05446805753522798</v>
+      </c>
+      <c r="L15">
+        <v>-0.03095877065255856</v>
+      </c>
+      <c r="M15">
+        <v>0.01182463214705171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.04733223028522162</v>
+        <v>0.06735317602055652</v>
       </c>
       <c r="C16">
-        <v>-0.06489903005666321</v>
+        <v>-0.07020662004107125</v>
       </c>
       <c r="D16">
-        <v>-0.03812874593522195</v>
+        <v>0.01433455679697935</v>
       </c>
       <c r="E16">
-        <v>-0.01495528887225962</v>
+        <v>0.02813971640184108</v>
       </c>
       <c r="F16">
-        <v>0.02529533096948538</v>
+        <v>0.07057545727636841</v>
       </c>
       <c r="G16">
-        <v>-0.009152313267383416</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.04571811623890532</v>
+      </c>
+      <c r="H16">
+        <v>-0.01608389492727264</v>
+      </c>
+      <c r="I16">
+        <v>-0.07802139374721352</v>
+      </c>
+      <c r="J16">
+        <v>0.07726410318701288</v>
+      </c>
+      <c r="K16">
+        <v>-0.04097779000039799</v>
+      </c>
+      <c r="L16">
+        <v>0.01366483395773015</v>
+      </c>
+      <c r="M16">
+        <v>-0.1194767186528175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1397,28 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1438,28 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1479,315 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04583296086150102</v>
+        <v>0.04761176741740279</v>
       </c>
       <c r="C20">
-        <v>-0.04712578579378211</v>
+        <v>-0.03781590467566772</v>
       </c>
       <c r="D20">
-        <v>-0.001330917924035572</v>
+        <v>0.01412491645698079</v>
       </c>
       <c r="E20">
-        <v>-0.02734494520727503</v>
+        <v>0.02199880202240231</v>
       </c>
       <c r="F20">
-        <v>0.01349328584658533</v>
+        <v>0.0153137585970467</v>
       </c>
       <c r="G20">
-        <v>-0.009880989518120055</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05291905756155674</v>
+      </c>
+      <c r="H20">
+        <v>-0.03284477181671652</v>
+      </c>
+      <c r="I20">
+        <v>-0.1161502094846418</v>
+      </c>
+      <c r="J20">
+        <v>0.01784996088916975</v>
+      </c>
+      <c r="K20">
+        <v>-0.02705075939435585</v>
+      </c>
+      <c r="L20">
+        <v>-0.03784412989338155</v>
+      </c>
+      <c r="M20">
+        <v>-0.01631397206077413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.02434227130910047</v>
+        <v>0.0237122300976726</v>
       </c>
       <c r="C21">
-        <v>-0.03533772535804868</v>
+        <v>-0.01729935215838518</v>
       </c>
       <c r="D21">
-        <v>0.05188331436898925</v>
+        <v>-0.03383170393392159</v>
       </c>
       <c r="E21">
-        <v>-0.007620551145996826</v>
+        <v>0.03244725148662332</v>
       </c>
       <c r="F21">
-        <v>0.05632890764709046</v>
+        <v>0.006664304648154612</v>
       </c>
       <c r="G21">
-        <v>-0.02667858850512453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.02296080326602287</v>
+      </c>
+      <c r="H21">
+        <v>0.07925818243191188</v>
+      </c>
+      <c r="I21">
+        <v>-0.07512709966575561</v>
+      </c>
+      <c r="J21">
+        <v>-0.006488164438193801</v>
+      </c>
+      <c r="K21">
+        <v>0.06286758393110523</v>
+      </c>
+      <c r="L21">
+        <v>-0.03192963235777436</v>
+      </c>
+      <c r="M21">
+        <v>0.03556216655456942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.0774770705450064</v>
+        <v>0.06968601793667553</v>
       </c>
       <c r="C22">
-        <v>-0.1482024262593145</v>
+        <v>-0.09226550193382897</v>
       </c>
       <c r="D22">
-        <v>0.1682598007493475</v>
+        <v>-0.4666488639373494</v>
       </c>
       <c r="E22">
-        <v>0.05778481771300614</v>
+        <v>0.2989737232279155</v>
       </c>
       <c r="F22">
-        <v>0.3790563100693565</v>
+        <v>0.1048535097344177</v>
       </c>
       <c r="G22">
-        <v>-0.2457262863322622</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.3124937508084719</v>
+      </c>
+      <c r="H22">
+        <v>0.0244206663815576</v>
+      </c>
+      <c r="I22">
+        <v>0.1907346382888591</v>
+      </c>
+      <c r="J22">
+        <v>-0.04758743500697778</v>
+      </c>
+      <c r="K22">
+        <v>-0.033187738050123</v>
+      </c>
+      <c r="L22">
+        <v>-0.06663556271176101</v>
+      </c>
+      <c r="M22">
+        <v>-0.00670017609280765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.07822389289957218</v>
+        <v>0.07040529779434564</v>
       </c>
       <c r="C23">
-        <v>-0.1470870857110147</v>
+        <v>-0.09249907694810311</v>
       </c>
       <c r="D23">
-        <v>0.1684261839205227</v>
+        <v>-0.4680677213593477</v>
       </c>
       <c r="E23">
-        <v>0.05695665495616635</v>
+        <v>0.3011781580658688</v>
       </c>
       <c r="F23">
-        <v>0.3802171438364135</v>
+        <v>0.1079928196547361</v>
       </c>
       <c r="G23">
-        <v>-0.2428808741826686</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.3090248210973644</v>
+      </c>
+      <c r="H23">
+        <v>0.02390363978083689</v>
+      </c>
+      <c r="I23">
+        <v>0.1913568249665948</v>
+      </c>
+      <c r="J23">
+        <v>-0.05235563427340659</v>
+      </c>
+      <c r="K23">
+        <v>-0.03179306634566164</v>
+      </c>
+      <c r="L23">
+        <v>-0.06378026770976374</v>
+      </c>
+      <c r="M23">
+        <v>-0.00813872295642985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.0697366312395683</v>
+        <v>0.07444360887953885</v>
       </c>
       <c r="C24">
-        <v>-0.06752379847547976</v>
+        <v>-0.06918617190549568</v>
       </c>
       <c r="D24">
-        <v>-0.03299184374860448</v>
+        <v>0.008606228268934228</v>
       </c>
       <c r="E24">
-        <v>-0.03792062318086268</v>
+        <v>0.03539017051872619</v>
       </c>
       <c r="F24">
-        <v>0.03663812935223702</v>
+        <v>0.06861850458001306</v>
       </c>
       <c r="G24">
-        <v>0.02410922357772214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.06421691869826533</v>
+      </c>
+      <c r="H24">
+        <v>-0.01090953401323706</v>
+      </c>
+      <c r="I24">
+        <v>-0.0757898305514766</v>
+      </c>
+      <c r="J24">
+        <v>0.04988132107574592</v>
+      </c>
+      <c r="K24">
+        <v>-0.05217527413321017</v>
+      </c>
+      <c r="L24">
+        <v>0.009028636361286157</v>
+      </c>
+      <c r="M24">
+        <v>-0.1052200530029398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06289384809477219</v>
+        <v>0.07073549140209497</v>
       </c>
       <c r="C25">
-        <v>-0.03772410502279876</v>
+        <v>-0.04410277668539604</v>
       </c>
       <c r="D25">
-        <v>-0.03201472395609679</v>
+        <v>0.01789247852705768</v>
       </c>
       <c r="E25">
-        <v>-0.04415599229796863</v>
+        <v>0.03499950025701614</v>
       </c>
       <c r="F25">
-        <v>0.04992440898631414</v>
+        <v>0.07358156002443811</v>
       </c>
       <c r="G25">
-        <v>0.0176608851925578</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.05759287404803681</v>
+      </c>
+      <c r="H25">
+        <v>-0.0325870465480259</v>
+      </c>
+      <c r="I25">
+        <v>-0.08672159933594027</v>
+      </c>
+      <c r="J25">
+        <v>0.04871675771409162</v>
+      </c>
+      <c r="K25">
+        <v>-0.07675366957366152</v>
+      </c>
+      <c r="L25">
+        <v>0.03511965954336257</v>
+      </c>
+      <c r="M25">
+        <v>-0.1062699320118885</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.04387669760045956</v>
+        <v>0.0409843364020086</v>
       </c>
       <c r="C26">
-        <v>-0.02669706294677674</v>
+        <v>-0.02296774331964153</v>
       </c>
       <c r="D26">
-        <v>-0.002483752514629987</v>
+        <v>-0.01830683295832855</v>
       </c>
       <c r="E26">
-        <v>-0.03681763388606406</v>
+        <v>0.01615468454801082</v>
       </c>
       <c r="F26">
-        <v>-0.01161637719684885</v>
+        <v>0.00847631289049184</v>
       </c>
       <c r="G26">
-        <v>-0.02665310836900499</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02476173263867247</v>
+      </c>
+      <c r="H26">
+        <v>-0.008504741154809519</v>
+      </c>
+      <c r="I26">
+        <v>-0.061864995939625</v>
+      </c>
+      <c r="J26">
+        <v>0.02669190270838228</v>
+      </c>
+      <c r="K26">
+        <v>0.1007912073611639</v>
+      </c>
+      <c r="L26">
+        <v>-0.03606377858228714</v>
+      </c>
+      <c r="M26">
+        <v>0.04604589532421096</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1807,397 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.09907702835447293</v>
+        <v>0.1307782617343866</v>
       </c>
       <c r="C28">
-        <v>0.2919554596567641</v>
+        <v>0.2923339253184012</v>
       </c>
       <c r="D28">
-        <v>0.0425312406526997</v>
+        <v>-0.001174387782446658</v>
       </c>
       <c r="E28">
-        <v>-0.07589591991761384</v>
+        <v>0.03826521945763678</v>
       </c>
       <c r="F28">
-        <v>0.01158291096943086</v>
+        <v>-0.0004633327174042966</v>
       </c>
       <c r="G28">
-        <v>-0.06050408555571223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.009248777225028823</v>
+      </c>
+      <c r="H28">
+        <v>0.03268151953638856</v>
+      </c>
+      <c r="I28">
+        <v>0.01690101554979212</v>
+      </c>
+      <c r="J28">
+        <v>0.01943527820031269</v>
+      </c>
+      <c r="K28">
+        <v>0.05332861434232122</v>
+      </c>
+      <c r="L28">
+        <v>-0.003392534742766103</v>
+      </c>
+      <c r="M28">
+        <v>-0.001749617013350073</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.04555901873751204</v>
+        <v>0.04539368435542961</v>
       </c>
       <c r="C29">
-        <v>-0.001906209762658166</v>
+        <v>-0.01960973022972885</v>
       </c>
       <c r="D29">
-        <v>-0.01854950461643871</v>
+        <v>0.006424493781637302</v>
       </c>
       <c r="E29">
-        <v>-0.01122228595823081</v>
+        <v>0.02155589910279836</v>
       </c>
       <c r="F29">
-        <v>0.03830913259923806</v>
+        <v>0.04461263053321394</v>
       </c>
       <c r="G29">
-        <v>-0.01297239551334254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02266030429197392</v>
+      </c>
+      <c r="H29">
+        <v>-0.04588001626830798</v>
+      </c>
+      <c r="I29">
+        <v>-0.05287722061703441</v>
+      </c>
+      <c r="J29">
+        <v>-0.003184144566611979</v>
+      </c>
+      <c r="K29">
+        <v>0.02342181845360426</v>
+      </c>
+      <c r="L29">
+        <v>-0.01603632863233731</v>
+      </c>
+      <c r="M29">
+        <v>0.001772864382059695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1347704207762536</v>
+        <v>0.1101071184535163</v>
       </c>
       <c r="C30">
-        <v>-0.09302316725804521</v>
+        <v>-0.07512341439666198</v>
       </c>
       <c r="D30">
-        <v>-0.05480247256766484</v>
+        <v>-0.02170493459201067</v>
       </c>
       <c r="E30">
-        <v>-0.07465557635492562</v>
+        <v>0.09630806146786627</v>
       </c>
       <c r="F30">
-        <v>0.0754746486578744</v>
+        <v>0.1113449272381208</v>
       </c>
       <c r="G30">
-        <v>-0.06405173361314255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.09391095456584142</v>
+      </c>
+      <c r="H30">
+        <v>0.02820059718747224</v>
+      </c>
+      <c r="I30">
+        <v>-0.2025072672111581</v>
+      </c>
+      <c r="J30">
+        <v>-0.02790983061210651</v>
+      </c>
+      <c r="K30">
+        <v>-0.08634549378168398</v>
+      </c>
+      <c r="L30">
+        <v>-0.4271076598497831</v>
+      </c>
+      <c r="M30">
+        <v>0.3421969630306273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.04639244790057447</v>
+        <v>0.03611554059953156</v>
       </c>
       <c r="C31">
-        <v>-0.01664163965094868</v>
+        <v>-0.0418221133341747</v>
       </c>
       <c r="D31">
-        <v>-0.01871577294280023</v>
+        <v>-0.008944253491729883</v>
       </c>
       <c r="E31">
-        <v>0.003434710348630995</v>
+        <v>-0.003614747965263755</v>
       </c>
       <c r="F31">
-        <v>-0.003252891189653679</v>
+        <v>0.008437601412728661</v>
       </c>
       <c r="G31">
-        <v>-0.02189760617556182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.002819228742140944</v>
+      </c>
+      <c r="H31">
+        <v>-0.0538488177201016</v>
+      </c>
+      <c r="I31">
+        <v>-0.04695701911105585</v>
+      </c>
+      <c r="J31">
+        <v>-0.006907319404580863</v>
+      </c>
+      <c r="K31">
+        <v>0.005168208707657895</v>
+      </c>
+      <c r="L31">
+        <v>-0.005221386546633909</v>
+      </c>
+      <c r="M31">
+        <v>-0.00666307190039974</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.03391326198998487</v>
+        <v>0.04790147763005824</v>
       </c>
       <c r="C32">
-        <v>-0.02414091446177609</v>
+        <v>-0.00318433740542457</v>
       </c>
       <c r="D32">
-        <v>0.0315219317697729</v>
+        <v>-0.04354725510384836</v>
       </c>
       <c r="E32">
-        <v>0.01835241800193025</v>
+        <v>0.03357858848904686</v>
       </c>
       <c r="F32">
-        <v>0.06463102314157095</v>
+        <v>0.03104031321545771</v>
       </c>
       <c r="G32">
-        <v>-0.03712251989884156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.006240608204891679</v>
+      </c>
+      <c r="H32">
+        <v>-0.005279490859411651</v>
+      </c>
+      <c r="I32">
+        <v>-0.01563472201938292</v>
+      </c>
+      <c r="J32">
+        <v>0.04345627069614639</v>
+      </c>
+      <c r="K32">
+        <v>0.07939489110598198</v>
+      </c>
+      <c r="L32">
+        <v>-0.0563348364940424</v>
+      </c>
+      <c r="M32">
+        <v>0.03206677102139379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.09316045837173488</v>
+        <v>0.09878341138263898</v>
       </c>
       <c r="C33">
-        <v>-0.04580726692756693</v>
+        <v>-0.0632414602203257</v>
       </c>
       <c r="D33">
-        <v>-0.0433960144570963</v>
+        <v>-0.01071252454083665</v>
       </c>
       <c r="E33">
-        <v>-0.01451005628212717</v>
+        <v>-0.00549941521134602</v>
       </c>
       <c r="F33">
-        <v>0.004806811926005402</v>
+        <v>0.05108672740343925</v>
       </c>
       <c r="G33">
-        <v>-0.005689781708520549</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03270620857774136</v>
+      </c>
+      <c r="H33">
+        <v>-0.05005607830534745</v>
+      </c>
+      <c r="I33">
+        <v>-0.06304434384553449</v>
+      </c>
+      <c r="J33">
+        <v>-0.005204347753259612</v>
+      </c>
+      <c r="K33">
+        <v>0.02941217293230815</v>
+      </c>
+      <c r="L33">
+        <v>-0.01270205994020454</v>
+      </c>
+      <c r="M33">
+        <v>-0.0310425368864101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05418149760521916</v>
+        <v>0.06164036314602609</v>
       </c>
       <c r="C34">
-        <v>-0.06617308370445162</v>
+        <v>-0.05672530479498995</v>
       </c>
       <c r="D34">
-        <v>-0.0249175159610561</v>
+        <v>0.0138506649870922</v>
       </c>
       <c r="E34">
-        <v>-0.02055682029546733</v>
+        <v>0.01766648516705612</v>
       </c>
       <c r="F34">
-        <v>0.04567070697655466</v>
+        <v>0.05806805565712201</v>
       </c>
       <c r="G34">
-        <v>0.01271349637229268</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.05568305603274005</v>
+      </c>
+      <c r="H34">
+        <v>-0.02935630355664734</v>
+      </c>
+      <c r="I34">
+        <v>-0.07607006180894009</v>
+      </c>
+      <c r="J34">
+        <v>0.04468025214885949</v>
+      </c>
+      <c r="K34">
+        <v>-0.05258059075462033</v>
+      </c>
+      <c r="L34">
+        <v>0.04099884734585913</v>
+      </c>
+      <c r="M34">
+        <v>-0.1204777163328204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.0376767149603689</v>
+        <v>0.03150278843850639</v>
       </c>
       <c r="C35">
-        <v>-0.01620443148933472</v>
+        <v>-0.02208736980197204</v>
       </c>
       <c r="D35">
-        <v>-0.006329840106893333</v>
+        <v>-0.002005546429443935</v>
       </c>
       <c r="E35">
-        <v>-0.001139459395878913</v>
+        <v>-0.002434073470653329</v>
       </c>
       <c r="F35">
-        <v>0.01344423223406718</v>
+        <v>0.01310839220643369</v>
       </c>
       <c r="G35">
-        <v>-0.03359101332471554</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.002249144686340564</v>
+      </c>
+      <c r="H35">
+        <v>-0.02537473310970031</v>
+      </c>
+      <c r="I35">
+        <v>-0.07412402931927907</v>
+      </c>
+      <c r="J35">
+        <v>0.02697613704132623</v>
+      </c>
+      <c r="K35">
+        <v>-0.02419603572340684</v>
+      </c>
+      <c r="L35">
+        <v>-0.02585549562654691</v>
+      </c>
+      <c r="M35">
+        <v>0.001509855999214517</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.02986746143505498</v>
+        <v>0.02982775219873613</v>
       </c>
       <c r="C36">
-        <v>-0.01813693978768162</v>
+        <v>-0.01594828734524495</v>
       </c>
       <c r="D36">
-        <v>0.0003200692636957566</v>
+        <v>-0.008766576183484767</v>
       </c>
       <c r="E36">
-        <v>-0.02989852200657767</v>
+        <v>0.0279989933751532</v>
       </c>
       <c r="F36">
-        <v>0.02421287510012269</v>
+        <v>0.02276606385272871</v>
       </c>
       <c r="G36">
-        <v>-0.001051835173382554</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.03267312917013946</v>
+      </c>
+      <c r="H36">
+        <v>-0.02066580483363598</v>
+      </c>
+      <c r="I36">
+        <v>-0.06750292347545477</v>
+      </c>
+      <c r="J36">
+        <v>-0.002179699878023188</v>
+      </c>
+      <c r="K36">
+        <v>0.01417698140692425</v>
+      </c>
+      <c r="L36">
+        <v>-0.005132869453621685</v>
+      </c>
+      <c r="M36">
+        <v>0.00677528066732965</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2217,192 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04303547798455406</v>
+        <v>0.03756358846066606</v>
       </c>
       <c r="C38">
-        <v>-0.01814525742633971</v>
+        <v>-0.04376011054337374</v>
       </c>
       <c r="D38">
-        <v>0.01541760933139188</v>
+        <v>-0.01377992660512719</v>
       </c>
       <c r="E38">
-        <v>0.02393104053293093</v>
+        <v>0.01422225269327007</v>
       </c>
       <c r="F38">
-        <v>0.07287859327553006</v>
+        <v>-0.005808342071587193</v>
       </c>
       <c r="G38">
-        <v>-0.002641720555813161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01725563291589029</v>
+      </c>
+      <c r="H38">
+        <v>-0.003712639496142496</v>
+      </c>
+      <c r="I38">
+        <v>0.1110710604687746</v>
+      </c>
+      <c r="J38">
+        <v>0.02358708507152545</v>
+      </c>
+      <c r="K38">
+        <v>0.07176774052569176</v>
+      </c>
+      <c r="L38">
+        <v>-0.01087373030611684</v>
+      </c>
+      <c r="M38">
+        <v>0.2442915367402884</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.0849769742450654</v>
+        <v>0.09116894846003067</v>
       </c>
       <c r="C39">
-        <v>-0.07126382985231212</v>
+        <v>-0.06970402323743026</v>
       </c>
       <c r="D39">
-        <v>-0.05966582789877793</v>
+        <v>0.007917366661968734</v>
       </c>
       <c r="E39">
-        <v>-0.008336549123909805</v>
+        <v>0.02629353860689959</v>
       </c>
       <c r="F39">
-        <v>0.04249990172559741</v>
+        <v>0.07842675693201454</v>
       </c>
       <c r="G39">
-        <v>0.01095658088096797</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.05397043680522887</v>
+      </c>
+      <c r="H39">
+        <v>-0.01599177756098276</v>
+      </c>
+      <c r="I39">
+        <v>-0.09344362620569584</v>
+      </c>
+      <c r="J39">
+        <v>0.1261990320819706</v>
+      </c>
+      <c r="K39">
+        <v>-0.1133313372673402</v>
+      </c>
+      <c r="L39">
+        <v>-0.0829938001961842</v>
+      </c>
+      <c r="M39">
+        <v>-0.01071791294180713</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.07458738853836472</v>
+        <v>0.04266562353632988</v>
       </c>
       <c r="C40">
-        <v>-0.0499277442613884</v>
+        <v>-0.06478941692732391</v>
       </c>
       <c r="D40">
-        <v>0.01458358372162452</v>
+        <v>-0.07090539418953008</v>
       </c>
       <c r="E40">
-        <v>-0.00999715441150742</v>
+        <v>0.03895936509679663</v>
       </c>
       <c r="F40">
-        <v>0.2110285275145811</v>
+        <v>0.06490817850002335</v>
       </c>
       <c r="G40">
-        <v>-0.04262940217228325</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.10860743374938</v>
+      </c>
+      <c r="H40">
+        <v>0.05603440079047731</v>
+      </c>
+      <c r="I40">
+        <v>-0.05621587183195129</v>
+      </c>
+      <c r="J40">
+        <v>0.09059461451261414</v>
+      </c>
+      <c r="K40">
+        <v>-0.03583336565188318</v>
+      </c>
+      <c r="L40">
+        <v>-0.05224831346419788</v>
+      </c>
+      <c r="M40">
+        <v>0.2057238285303806</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04597746670892392</v>
+        <v>0.03762015726813069</v>
       </c>
       <c r="C41">
-        <v>-0.04326856489711921</v>
+        <v>-0.03436131222089944</v>
       </c>
       <c r="D41">
-        <v>-0.02164423249888131</v>
+        <v>0.01937444106207824</v>
       </c>
       <c r="E41">
-        <v>0.005938796087681001</v>
+        <v>-0.0155751403537597</v>
       </c>
       <c r="F41">
-        <v>0.008537337078286567</v>
+        <v>0.001093486701870841</v>
       </c>
       <c r="G41">
-        <v>-0.004762251921348477</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03063211083974617</v>
+      </c>
+      <c r="H41">
+        <v>-0.02958801034022659</v>
+      </c>
+      <c r="I41">
+        <v>-0.01705354267338762</v>
+      </c>
+      <c r="J41">
+        <v>0.03453898931918382</v>
+      </c>
+      <c r="K41">
+        <v>0.004845279922598359</v>
+      </c>
+      <c r="L41">
+        <v>-0.02122465987921072</v>
+      </c>
+      <c r="M41">
+        <v>-0.02241443413880783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2422,110 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.0518924515943778</v>
+        <v>0.05213391706237037</v>
       </c>
       <c r="C43">
-        <v>-0.03217703371913321</v>
+        <v>-0.04743582651241508</v>
       </c>
       <c r="D43">
-        <v>-0.01446081146198837</v>
+        <v>0.005606989392109475</v>
       </c>
       <c r="E43">
-        <v>-0.01735600364733563</v>
+        <v>0.01605644952110298</v>
       </c>
       <c r="F43">
-        <v>0.003460900109703416</v>
+        <v>0.009880912476778556</v>
       </c>
       <c r="G43">
-        <v>-0.01603881681161436</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01447433819507662</v>
+      </c>
+      <c r="H43">
+        <v>-0.0524307606511878</v>
+      </c>
+      <c r="I43">
+        <v>-0.01631426879324095</v>
+      </c>
+      <c r="J43">
+        <v>0.02066156795389578</v>
+      </c>
+      <c r="K43">
+        <v>-0.001851377865490745</v>
+      </c>
+      <c r="L43">
+        <v>0.005059842299132315</v>
+      </c>
+      <c r="M43">
+        <v>-0.003500691027319214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.06353380738496593</v>
+        <v>0.08033845954817671</v>
       </c>
       <c r="C44">
-        <v>-0.03538219331567546</v>
+        <v>-0.05511360363816022</v>
       </c>
       <c r="D44">
-        <v>0.03774570109586071</v>
+        <v>-0.01382180172213594</v>
       </c>
       <c r="E44">
-        <v>-0.07901696135203354</v>
+        <v>0.1233517337379558</v>
       </c>
       <c r="F44">
-        <v>0.1270555166000643</v>
+        <v>0.06634599687350436</v>
       </c>
       <c r="G44">
-        <v>0.009057863923338849</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.08135259794723744</v>
+      </c>
+      <c r="H44">
+        <v>-0.04592620121671522</v>
+      </c>
+      <c r="I44">
+        <v>-0.1098681710105465</v>
+      </c>
+      <c r="J44">
+        <v>0.05267935590262988</v>
+      </c>
+      <c r="K44">
+        <v>-0.04283919062449162</v>
+      </c>
+      <c r="L44">
+        <v>0.03497074820025765</v>
+      </c>
+      <c r="M44">
+        <v>0.04806951594560342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2545,274 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.01928194854890397</v>
+        <v>0.04220940226049964</v>
       </c>
       <c r="C46">
-        <v>-0.02532963284404418</v>
+        <v>-0.03734251798627731</v>
       </c>
       <c r="D46">
-        <v>-0.004490876192973676</v>
+        <v>0.001205477949963756</v>
       </c>
       <c r="E46">
-        <v>-0.01733416905440305</v>
+        <v>0.03264198934154654</v>
       </c>
       <c r="F46">
-        <v>0.05241451393996839</v>
+        <v>0.04495038873391088</v>
       </c>
       <c r="G46">
-        <v>0.00376116833912077</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.005508890790771443</v>
+      </c>
+      <c r="H46">
+        <v>-0.02057600042797441</v>
+      </c>
+      <c r="I46">
+        <v>-0.05076133810240636</v>
+      </c>
+      <c r="J46">
+        <v>0.002863059203135318</v>
+      </c>
+      <c r="K46">
+        <v>0.07092286911678941</v>
+      </c>
+      <c r="L46">
+        <v>-0.007132996291876693</v>
+      </c>
+      <c r="M46">
+        <v>0.01008110331439844</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.03233603194379032</v>
+        <v>0.04389429063972311</v>
       </c>
       <c r="C47">
-        <v>0.004478999851070968</v>
+        <v>-0.02251805380524002</v>
       </c>
       <c r="D47">
-        <v>0.0161459569982537</v>
+        <v>-0.02348588944571271</v>
       </c>
       <c r="E47">
-        <v>-0.007382560887770376</v>
+        <v>0.01326046730516626</v>
       </c>
       <c r="F47">
-        <v>0.06304419691591046</v>
+        <v>0.02286203798827543</v>
       </c>
       <c r="G47">
-        <v>-0.01449212285296921</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.003730403191549176</v>
+      </c>
+      <c r="H47">
+        <v>-0.03746482899067646</v>
+      </c>
+      <c r="I47">
+        <v>-0.03429889157597499</v>
+      </c>
+      <c r="J47">
+        <v>-0.03692497921433987</v>
+      </c>
+      <c r="K47">
+        <v>-0.008324382565271283</v>
+      </c>
+      <c r="L47">
+        <v>0.008187712661503126</v>
+      </c>
+      <c r="M47">
+        <v>-0.01116020353120058</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03846056426727058</v>
+        <v>0.04222746563751998</v>
       </c>
       <c r="C48">
-        <v>-0.02655296230917542</v>
+        <v>-0.01761578823434154</v>
       </c>
       <c r="D48">
-        <v>-0.0007410980960237277</v>
+        <v>-0.02303893462540872</v>
       </c>
       <c r="E48">
-        <v>-0.0183376844833348</v>
+        <v>0.02135088734877839</v>
       </c>
       <c r="F48">
-        <v>0.04814000699655992</v>
+        <v>0.02499028015392589</v>
       </c>
       <c r="G48">
-        <v>-0.03040408022489808</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01465219135598289</v>
+      </c>
+      <c r="H48">
+        <v>0.007233916760328371</v>
+      </c>
+      <c r="I48">
+        <v>-0.07521361051078225</v>
+      </c>
+      <c r="J48">
+        <v>0.002949125791431777</v>
+      </c>
+      <c r="K48">
+        <v>-0.005733105899393395</v>
+      </c>
+      <c r="L48">
+        <v>-0.02810731343893361</v>
+      </c>
+      <c r="M48">
+        <v>-0.0004629731290645635</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.1687502265073593</v>
+        <v>0.2181582972323421</v>
       </c>
       <c r="C49">
-        <v>-0.0863185780978</v>
+        <v>-0.0707762433681295</v>
       </c>
       <c r="D49">
-        <v>-0.1556772092384323</v>
+        <v>0.1614811329821966</v>
       </c>
       <c r="E49">
-        <v>-0.05435666338438697</v>
+        <v>-0.05771616089856819</v>
       </c>
       <c r="F49">
-        <v>-0.09759064373352908</v>
+        <v>0.005683571224909472</v>
       </c>
       <c r="G49">
-        <v>-0.07817038783457286</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.199515779479167</v>
+      </c>
+      <c r="H49">
+        <v>0.1963375473825928</v>
+      </c>
+      <c r="I49">
+        <v>0.07233726248376136</v>
+      </c>
+      <c r="J49">
+        <v>0.1364776103463263</v>
+      </c>
+      <c r="K49">
+        <v>-0.07590899571788719</v>
+      </c>
+      <c r="L49">
+        <v>0.08101539874901906</v>
+      </c>
+      <c r="M49">
+        <v>-0.1541311122128263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05281149345020332</v>
+        <v>0.04451081795620102</v>
       </c>
       <c r="C50">
-        <v>-0.02332081417924788</v>
+        <v>-0.04033886336641983</v>
       </c>
       <c r="D50">
-        <v>-0.02255406762278947</v>
+        <v>-0.008447456428649053</v>
       </c>
       <c r="E50">
-        <v>0.002235497108336832</v>
+        <v>-0.007649712277183679</v>
       </c>
       <c r="F50">
-        <v>0.01946790681542756</v>
+        <v>0.03303513270140485</v>
       </c>
       <c r="G50">
-        <v>-0.008679813555534509</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01563967608945876</v>
+      </c>
+      <c r="H50">
+        <v>-0.05640079804417809</v>
+      </c>
+      <c r="I50">
+        <v>-0.0343247273163776</v>
+      </c>
+      <c r="J50">
+        <v>-0.03599752412035463</v>
+      </c>
+      <c r="K50">
+        <v>0.01420967654806679</v>
+      </c>
+      <c r="L50">
+        <v>-0.02530153155080703</v>
+      </c>
+      <c r="M50">
+        <v>0.02420811941717352</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02542015972090195</v>
+        <v>0.03384648225309456</v>
       </c>
       <c r="C51">
-        <v>0.006544771673409607</v>
+        <v>-0.001175063309332829</v>
       </c>
       <c r="D51">
-        <v>0.01272126634658888</v>
+        <v>0.007605729522275438</v>
       </c>
       <c r="E51">
-        <v>0.002660511646535879</v>
+        <v>0.01539700728600034</v>
       </c>
       <c r="F51">
-        <v>0.01011202434136156</v>
+        <v>-0.03453891084222891</v>
       </c>
       <c r="G51">
-        <v>0.005521842195639924</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.002807923383328248</v>
+      </c>
+      <c r="H51">
+        <v>0.01399030047401482</v>
+      </c>
+      <c r="I51">
+        <v>0.006151786632793744</v>
+      </c>
+      <c r="J51">
+        <v>0.01830631320179711</v>
+      </c>
+      <c r="K51">
+        <v>-0.06115344957417682</v>
+      </c>
+      <c r="L51">
+        <v>0.08469096199163198</v>
+      </c>
+      <c r="M51">
+        <v>-0.008209001502443969</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2832,192 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1552817348569187</v>
+        <v>0.1527030009807589</v>
       </c>
       <c r="C53">
-        <v>0.002896489035877636</v>
+        <v>-0.04570595189302443</v>
       </c>
       <c r="D53">
-        <v>-0.08725732133833317</v>
+        <v>0.05640932944141973</v>
       </c>
       <c r="E53">
-        <v>-0.01652196979875741</v>
+        <v>-0.04147357629577113</v>
       </c>
       <c r="F53">
-        <v>-0.04159092351816145</v>
+        <v>0.008040210036936843</v>
       </c>
       <c r="G53">
-        <v>0.160864684964333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.03636100755510917</v>
+      </c>
+      <c r="H53">
+        <v>-0.2366931360078133</v>
+      </c>
+      <c r="I53">
+        <v>0.1017595279383902</v>
+      </c>
+      <c r="J53">
+        <v>-0.05513657763623165</v>
+      </c>
+      <c r="K53">
+        <v>0.0174225146509671</v>
+      </c>
+      <c r="L53">
+        <v>0.03466519474583976</v>
+      </c>
+      <c r="M53">
+        <v>0.08935859800719838</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.07717625022068995</v>
+        <v>0.0658083927401531</v>
       </c>
       <c r="C54">
-        <v>-0.06762333531824184</v>
+        <v>-0.03918703046356543</v>
       </c>
       <c r="D54">
-        <v>0.02549790074544359</v>
+        <v>-0.03304534242180315</v>
       </c>
       <c r="E54">
-        <v>-0.0426161005190741</v>
+        <v>0.04807981293797151</v>
       </c>
       <c r="F54">
-        <v>0.04270804557101762</v>
+        <v>0.03610239210998219</v>
       </c>
       <c r="G54">
-        <v>-0.01160288359857511</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.08252338509490785</v>
+      </c>
+      <c r="H54">
+        <v>-0.0291790576672034</v>
+      </c>
+      <c r="I54">
+        <v>-0.1077047543691017</v>
+      </c>
+      <c r="J54">
+        <v>-0.01548291186755412</v>
+      </c>
+      <c r="K54">
+        <v>0.05397783535099843</v>
+      </c>
+      <c r="L54">
+        <v>-0.07627544196120822</v>
+      </c>
+      <c r="M54">
+        <v>0.006969872084138418</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.08880864482141175</v>
+        <v>0.09039021915425795</v>
       </c>
       <c r="C55">
-        <v>0.004458624808023472</v>
+        <v>-0.03744096671444485</v>
       </c>
       <c r="D55">
-        <v>-0.05536353494676809</v>
+        <v>0.0447579412653805</v>
       </c>
       <c r="E55">
-        <v>-0.02526519156522822</v>
+        <v>-0.006300755878671139</v>
       </c>
       <c r="F55">
-        <v>0.02353184290188985</v>
+        <v>0.0294243403376513</v>
       </c>
       <c r="G55">
-        <v>0.126441225130994</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01668491042082038</v>
+      </c>
+      <c r="H55">
+        <v>-0.1675809579738438</v>
+      </c>
+      <c r="I55">
+        <v>0.02572366546893676</v>
+      </c>
+      <c r="J55">
+        <v>-0.02387150580622103</v>
+      </c>
+      <c r="K55">
+        <v>0.01545181553989667</v>
+      </c>
+      <c r="L55">
+        <v>0.06269058165659708</v>
+      </c>
+      <c r="M55">
+        <v>0.04314334487420019</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1515971628245762</v>
+        <v>0.1443439718664463</v>
       </c>
       <c r="C56">
-        <v>0.01127810684554488</v>
+        <v>-0.06258445871629514</v>
       </c>
       <c r="D56">
-        <v>-0.1007554093015717</v>
+        <v>0.05866611295873686</v>
       </c>
       <c r="E56">
-        <v>-0.05428444253518175</v>
+        <v>-0.01722680658081585</v>
       </c>
       <c r="F56">
-        <v>-0.04474773925315243</v>
+        <v>0.01630288320118843</v>
       </c>
       <c r="G56">
-        <v>0.1549370907241432</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.01665886286528478</v>
+      </c>
+      <c r="H56">
+        <v>-0.243598108603169</v>
+      </c>
+      <c r="I56">
+        <v>0.1278657484841804</v>
+      </c>
+      <c r="J56">
+        <v>-0.04678052230812256</v>
+      </c>
+      <c r="K56">
+        <v>0.01503149974965175</v>
+      </c>
+      <c r="L56">
+        <v>-0.001457694203555573</v>
+      </c>
+      <c r="M56">
+        <v>0.08030001399895048</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,884 +3037,1586 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.1248063129605225</v>
+        <v>0.07065395759506421</v>
       </c>
       <c r="C58">
-        <v>-0.1196446545245309</v>
+        <v>-0.05857324487229705</v>
       </c>
       <c r="D58">
-        <v>0.2864952374881681</v>
+        <v>-0.1587708729727964</v>
       </c>
       <c r="E58">
-        <v>-0.09875826527039823</v>
+        <v>0.1173880222062769</v>
       </c>
       <c r="F58">
-        <v>0.1713480824401002</v>
+        <v>-0.2507867797827544</v>
       </c>
       <c r="G58">
-        <v>-0.2672527529187616</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.03839510746808091</v>
+      </c>
+      <c r="H58">
+        <v>0.09679150382828469</v>
+      </c>
+      <c r="I58">
+        <v>-0.40983663161944</v>
+      </c>
+      <c r="J58">
+        <v>-0.157632900251048</v>
+      </c>
+      <c r="K58">
+        <v>-0.3919681062843275</v>
+      </c>
+      <c r="L58">
+        <v>0.006242047718631742</v>
+      </c>
+      <c r="M58">
+        <v>-0.01217144844414074</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2234617200798207</v>
+        <v>0.221400257696533</v>
       </c>
       <c r="C59">
-        <v>0.4151664661969328</v>
+        <v>0.3154141694460667</v>
       </c>
       <c r="D59">
-        <v>0.07365559727519949</v>
+        <v>-0.003285725522513144</v>
       </c>
       <c r="E59">
-        <v>-0.09075567597562331</v>
+        <v>0.01983611861746141</v>
       </c>
       <c r="F59">
-        <v>0.0682560072073905</v>
+        <v>-0.03945766288045977</v>
       </c>
       <c r="G59">
-        <v>0.04382783971236986</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.04383917593561987</v>
+      </c>
+      <c r="H59">
+        <v>-0.06507159178532243</v>
+      </c>
+      <c r="I59">
+        <v>0.06579644994567582</v>
+      </c>
+      <c r="J59">
+        <v>0.0376913900796999</v>
+      </c>
+      <c r="K59">
+        <v>-0.009905651312640403</v>
+      </c>
+      <c r="L59">
+        <v>0.03767074759247045</v>
+      </c>
+      <c r="M59">
+        <v>0.04300529892474126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2325617614637373</v>
+        <v>0.2424025586543128</v>
       </c>
       <c r="C60">
-        <v>-0.04660427885709185</v>
+        <v>-0.1007534180757751</v>
       </c>
       <c r="D60">
-        <v>-0.1201872928796442</v>
+        <v>0.1262887020088005</v>
       </c>
       <c r="E60">
-        <v>-0.08265388373311483</v>
+        <v>-0.02166729153387355</v>
       </c>
       <c r="F60">
-        <v>-0.01136647778654776</v>
+        <v>-0.008078953286666371</v>
       </c>
       <c r="G60">
-        <v>0.00678914605043695</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04800405409536025</v>
+      </c>
+      <c r="H60">
+        <v>0.0834768475524945</v>
+      </c>
+      <c r="I60">
+        <v>0.1421263456729199</v>
+      </c>
+      <c r="J60">
+        <v>-0.134860424269384</v>
+      </c>
+      <c r="K60">
+        <v>-0.009466714933147999</v>
+      </c>
+      <c r="L60">
+        <v>0.06244470746654401</v>
+      </c>
+      <c r="M60">
+        <v>-0.049727213309712</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.07344710182935681</v>
+        <v>0.08339410274051987</v>
       </c>
       <c r="C61">
-        <v>-0.04340280942475587</v>
+        <v>-0.05299930907820952</v>
       </c>
       <c r="D61">
-        <v>-0.0491771824753346</v>
+        <v>0.02011973403118418</v>
       </c>
       <c r="E61">
-        <v>-0.01238249309617352</v>
+        <v>0.02464908729144624</v>
       </c>
       <c r="F61">
-        <v>0.01852858537566053</v>
+        <v>0.06325716593572363</v>
       </c>
       <c r="G61">
-        <v>-0.003200145318758881</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.05986116092470475</v>
+      </c>
+      <c r="H61">
+        <v>-0.05784962064963962</v>
+      </c>
+      <c r="I61">
+        <v>-0.05001522332932</v>
+      </c>
+      <c r="J61">
+        <v>0.0782957585050378</v>
+      </c>
+      <c r="K61">
+        <v>-0.04435370649807142</v>
+      </c>
+      <c r="L61">
+        <v>-0.03507602713600689</v>
+      </c>
+      <c r="M61">
+        <v>-0.01613019752491104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1574106990783459</v>
+        <v>0.1457670823055273</v>
       </c>
       <c r="C62">
-        <v>-0.01403913171865134</v>
+        <v>-0.06559725471282937</v>
       </c>
       <c r="D62">
-        <v>-0.07432548499589148</v>
+        <v>0.04899701583409621</v>
       </c>
       <c r="E62">
-        <v>0.001226920882763836</v>
+        <v>-0.06370615449333328</v>
       </c>
       <c r="F62">
-        <v>-0.09529249067405704</v>
+        <v>0.0009962418041482369</v>
       </c>
       <c r="G62">
-        <v>0.1725475214013738</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.008165550075376206</v>
+      </c>
+      <c r="H62">
+        <v>-0.2132148209559893</v>
+      </c>
+      <c r="I62">
+        <v>0.09329566561327002</v>
+      </c>
+      <c r="J62">
+        <v>-0.06797782910240135</v>
+      </c>
+      <c r="K62">
+        <v>0.06226225087573569</v>
+      </c>
+      <c r="L62">
+        <v>0.03462951459985828</v>
+      </c>
+      <c r="M62">
+        <v>0.04507331516828829</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.04880144675287849</v>
+        <v>0.04563885165614389</v>
       </c>
       <c r="C63">
-        <v>-0.04413924862844114</v>
+        <v>-0.02819634949962609</v>
       </c>
       <c r="D63">
-        <v>-0.02171095109584287</v>
+        <v>-0.004981756864390684</v>
       </c>
       <c r="E63">
-        <v>-0.01231658231383274</v>
+        <v>-0.001112138734830808</v>
       </c>
       <c r="F63">
-        <v>0.0106626393060733</v>
+        <v>0.04041694584767032</v>
       </c>
       <c r="G63">
-        <v>0.02863135799398352</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.04128582486457097</v>
+      </c>
+      <c r="H63">
+        <v>-0.01342822182597079</v>
+      </c>
+      <c r="I63">
+        <v>-0.06962398802332598</v>
+      </c>
+      <c r="J63">
+        <v>-0.02055252982599221</v>
+      </c>
+      <c r="K63">
+        <v>0.002208635369301282</v>
+      </c>
+      <c r="L63">
+        <v>-0.0223581585611822</v>
+      </c>
+      <c r="M63">
+        <v>-0.01202380682894218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1061651097389063</v>
+        <v>0.1045240974066234</v>
       </c>
       <c r="C64">
-        <v>-0.03066397345579502</v>
+        <v>-0.04500189298111498</v>
       </c>
       <c r="D64">
-        <v>-0.0394389937653333</v>
+        <v>0.02141375481361239</v>
       </c>
       <c r="E64">
-        <v>-0.03673860305777705</v>
+        <v>0.03852602134542241</v>
       </c>
       <c r="F64">
-        <v>0.0539443951867085</v>
+        <v>0.07572526062546427</v>
       </c>
       <c r="G64">
-        <v>-0.03583172567469514</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.03387603802777058</v>
+      </c>
+      <c r="H64">
+        <v>0.0172745932059062</v>
+      </c>
+      <c r="I64">
+        <v>-0.03365304663108573</v>
+      </c>
+      <c r="J64">
+        <v>0.03031537367980422</v>
+      </c>
+      <c r="K64">
+        <v>-0.03038439652692712</v>
+      </c>
+      <c r="L64">
+        <v>-0.08428489527657408</v>
+      </c>
+      <c r="M64">
+        <v>0.02598976250559569</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1271199110611717</v>
+        <v>0.1233198602718676</v>
       </c>
       <c r="C65">
-        <v>-0.05175196661404156</v>
+        <v>-0.03195715938237177</v>
       </c>
       <c r="D65">
-        <v>-0.07570284915333189</v>
+        <v>0.03446982253659522</v>
       </c>
       <c r="E65">
-        <v>-0.05647566917206347</v>
+        <v>-0.01549776484133836</v>
       </c>
       <c r="F65">
-        <v>0.0502325690696318</v>
+        <v>0.08277151340263872</v>
       </c>
       <c r="G65">
-        <v>-0.02449741242017719</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.0449663328031991</v>
+      </c>
+      <c r="H65">
+        <v>0.1791361396164835</v>
+      </c>
+      <c r="I65">
+        <v>-0.1368439674386838</v>
+      </c>
+      <c r="J65">
+        <v>-0.6588878954251243</v>
+      </c>
+      <c r="K65">
+        <v>0.1706746033134139</v>
+      </c>
+      <c r="L65">
+        <v>0.09093343468778962</v>
+      </c>
+      <c r="M65">
+        <v>0.05199923999858027</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.141657980963708</v>
+        <v>0.1268885637080327</v>
       </c>
       <c r="C66">
-        <v>-0.1053266207159716</v>
+        <v>-0.116891609922077</v>
       </c>
       <c r="D66">
-        <v>-0.1052149873044216</v>
+        <v>0.01836889290401429</v>
       </c>
       <c r="E66">
-        <v>-0.03473799057791649</v>
+        <v>0.01275629836378429</v>
       </c>
       <c r="F66">
-        <v>0.01768713342610253</v>
+        <v>0.09891378503745142</v>
       </c>
       <c r="G66">
-        <v>0.01436658135324491</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.07005316312837861</v>
+      </c>
+      <c r="H66">
+        <v>-0.03699465173910958</v>
+      </c>
+      <c r="I66">
+        <v>-0.08259400725552055</v>
+      </c>
+      <c r="J66">
+        <v>0.2070408672992017</v>
+      </c>
+      <c r="K66">
+        <v>-0.09903844428139216</v>
+      </c>
+      <c r="L66">
+        <v>-0.1076608375458371</v>
+      </c>
+      <c r="M66">
+        <v>0.01769971196054596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.07554097050584692</v>
+        <v>0.08591461010058432</v>
       </c>
       <c r="C67">
-        <v>-0.03178234888742547</v>
+        <v>-0.06124901608065875</v>
       </c>
       <c r="D67">
-        <v>0.0008360995664253349</v>
+        <v>0.01005329179312403</v>
       </c>
       <c r="E67">
-        <v>-0.006357893152651318</v>
+        <v>0.03504070488708653</v>
       </c>
       <c r="F67">
-        <v>0.02845964402817511</v>
+        <v>-0.008264255668888339</v>
       </c>
       <c r="G67">
-        <v>0.0009422114895185655</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.004624306574423106</v>
+      </c>
+      <c r="H67">
+        <v>-0.0007441798138685226</v>
+      </c>
+      <c r="I67">
+        <v>0.140652265968234</v>
+      </c>
+      <c r="J67">
+        <v>0.0534593572647248</v>
+      </c>
+      <c r="K67">
+        <v>0.06588147404976261</v>
+      </c>
+      <c r="L67">
+        <v>0.02753331868854159</v>
+      </c>
+      <c r="M67">
+        <v>0.1667861720771531</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.09536695815514259</v>
+        <v>0.1170934105446508</v>
       </c>
       <c r="C68">
-        <v>0.2463877216987132</v>
+        <v>0.269642593903034</v>
       </c>
       <c r="D68">
-        <v>0.06334280768623304</v>
+        <v>-0.03485854542877526</v>
       </c>
       <c r="E68">
-        <v>-0.03240824356924554</v>
+        <v>0.03151821307614656</v>
       </c>
       <c r="F68">
-        <v>0.03668244821000197</v>
+        <v>0.001429087669501555</v>
       </c>
       <c r="G68">
-        <v>-0.01919734220558534</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01187918120662964</v>
+      </c>
+      <c r="H68">
+        <v>-0.02395407068891759</v>
+      </c>
+      <c r="I68">
+        <v>-0.02779792888580848</v>
+      </c>
+      <c r="J68">
+        <v>-0.06313334488589382</v>
+      </c>
+      <c r="K68">
+        <v>0.008336897294586556</v>
+      </c>
+      <c r="L68">
+        <v>-0.03318692531351222</v>
+      </c>
+      <c r="M68">
+        <v>0.04871719160312087</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.04871686286048977</v>
+        <v>0.04515211077811333</v>
       </c>
       <c r="C69">
-        <v>-0.01481791394377228</v>
+        <v>-0.02112974817103155</v>
       </c>
       <c r="D69">
-        <v>0.001685796542995195</v>
+        <v>-0.01196278445178298</v>
       </c>
       <c r="E69">
-        <v>-0.009749328065693844</v>
+        <v>-0.005045455358810702</v>
       </c>
       <c r="F69">
-        <v>0.009691580982299882</v>
+        <v>-0.001201099385854769</v>
       </c>
       <c r="G69">
-        <v>0.0610040328375878</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.0262455032860032</v>
+      </c>
+      <c r="H69">
+        <v>-0.04537380553967372</v>
+      </c>
+      <c r="I69">
+        <v>-3.380972399211501e-05</v>
+      </c>
+      <c r="J69">
+        <v>-0.01018381437852769</v>
+      </c>
+      <c r="K69">
+        <v>-0.0258712557076017</v>
+      </c>
+      <c r="L69">
+        <v>0.01853031059589891</v>
+      </c>
+      <c r="M69">
+        <v>-0.02625378559393502</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.02609687142663476</v>
+        <v>0.04604544639024954</v>
       </c>
       <c r="C70">
-        <v>-0.004070911810029643</v>
+        <v>-0.03019289682726877</v>
       </c>
       <c r="D70">
-        <v>-0.001895481944580743</v>
+        <v>0.0271415269590084</v>
       </c>
       <c r="E70">
-        <v>0.009621921903518264</v>
+        <v>-0.01979474508638526</v>
       </c>
       <c r="F70">
-        <v>0.002605211440520167</v>
+        <v>-0.035566666848314</v>
       </c>
       <c r="G70">
-        <v>-0.06456960518189733</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.03857326455402167</v>
+      </c>
+      <c r="H70">
+        <v>0.02076094949926767</v>
+      </c>
+      <c r="I70">
+        <v>0.02925148456050724</v>
+      </c>
+      <c r="J70">
+        <v>0.05919229351898435</v>
+      </c>
+      <c r="K70">
+        <v>0.1179298543871598</v>
+      </c>
+      <c r="L70">
+        <v>-0.1239425723895739</v>
+      </c>
+      <c r="M70">
+        <v>0.03907843199614537</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.0994964752320238</v>
+        <v>0.1302630310915446</v>
       </c>
       <c r="C71">
-        <v>0.2626802673515053</v>
+        <v>0.2803194568958247</v>
       </c>
       <c r="D71">
-        <v>0.06145335251061822</v>
+        <v>-0.01514592131373672</v>
       </c>
       <c r="E71">
-        <v>-0.06553427364004139</v>
+        <v>0.04764413922508198</v>
       </c>
       <c r="F71">
-        <v>0.02181072105216343</v>
+        <v>0.009054697816974218</v>
       </c>
       <c r="G71">
-        <v>-0.03354764845113888</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.005250850613332196</v>
+      </c>
+      <c r="H71">
+        <v>-0.01040306748033811</v>
+      </c>
+      <c r="I71">
+        <v>-0.02356661392394492</v>
+      </c>
+      <c r="J71">
+        <v>-0.009346114754738318</v>
+      </c>
+      <c r="K71">
+        <v>0.005636164129420989</v>
+      </c>
+      <c r="L71">
+        <v>0.009854869086892077</v>
+      </c>
+      <c r="M71">
+        <v>0.01881926534859111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1669282680863015</v>
+        <v>0.1400805860894922</v>
       </c>
       <c r="C72">
-        <v>0.01714922917699879</v>
+        <v>-0.02620014429398319</v>
       </c>
       <c r="D72">
-        <v>-0.09791816174892796</v>
+        <v>-0.0587184337291831</v>
       </c>
       <c r="E72">
-        <v>0.2267923478006181</v>
+        <v>-0.172404034369478</v>
       </c>
       <c r="F72">
-        <v>0.03808286863185277</v>
+        <v>0.0916600798412681</v>
       </c>
       <c r="G72">
-        <v>0.07471656254063674</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.08766844137591208</v>
+      </c>
+      <c r="H72">
+        <v>-0.01000316812009785</v>
+      </c>
+      <c r="I72">
+        <v>0.04599919629497298</v>
+      </c>
+      <c r="J72">
+        <v>-0.124150142384847</v>
+      </c>
+      <c r="K72">
+        <v>0.005991260925020937</v>
+      </c>
+      <c r="L72">
+        <v>0.08812119238309717</v>
+      </c>
+      <c r="M72">
+        <v>0.04965208505523207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2509990152411459</v>
+        <v>0.2346528866225812</v>
       </c>
       <c r="C73">
-        <v>-0.1180819591873856</v>
+        <v>-0.1443001879860029</v>
       </c>
       <c r="D73">
-        <v>-0.2076595277001432</v>
+        <v>0.2539706390215171</v>
       </c>
       <c r="E73">
-        <v>-0.1422692466469698</v>
+        <v>-0.04118601595117934</v>
       </c>
       <c r="F73">
-        <v>-0.06356589181657651</v>
+        <v>-0.1408528901433886</v>
       </c>
       <c r="G73">
-        <v>-0.1168096849142308</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2742318998087196</v>
+      </c>
+      <c r="H73">
+        <v>0.292378378465191</v>
+      </c>
+      <c r="I73">
+        <v>0.1193192619466099</v>
+      </c>
+      <c r="J73">
+        <v>0.01121259069660293</v>
+      </c>
+      <c r="K73">
+        <v>-0.4788846642146981</v>
+      </c>
+      <c r="L73">
+        <v>0.2768313200679386</v>
+      </c>
+      <c r="M73">
+        <v>0.2277496078216604</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.08458370336480338</v>
+        <v>0.08670342471405623</v>
       </c>
       <c r="C74">
-        <v>-0.007668768974058346</v>
+        <v>-0.05924825173382521</v>
       </c>
       <c r="D74">
-        <v>-0.06390734403369565</v>
+        <v>0.03017379923169544</v>
       </c>
       <c r="E74">
-        <v>-0.01172262874179423</v>
+        <v>-0.02377626163900458</v>
       </c>
       <c r="F74">
-        <v>0.007010890807406516</v>
+        <v>0.02199967586810369</v>
       </c>
       <c r="G74">
-        <v>0.04100844768552267</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.03497906377663676</v>
+      </c>
+      <c r="H74">
+        <v>-0.1448228973038768</v>
+      </c>
+      <c r="I74">
+        <v>0.02345513658352127</v>
+      </c>
+      <c r="J74">
+        <v>-0.02221070720963268</v>
+      </c>
+      <c r="K74">
+        <v>-0.05330699570858159</v>
+      </c>
+      <c r="L74">
+        <v>0.03211104269911504</v>
+      </c>
+      <c r="M74">
+        <v>0.04641236216090899</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.1106578559837164</v>
+        <v>0.09353894171766858</v>
       </c>
       <c r="C75">
-        <v>-0.01692848591435784</v>
+        <v>-0.04864222526235742</v>
       </c>
       <c r="D75">
-        <v>0.0159080817491292</v>
+        <v>-0.007853428241058483</v>
       </c>
       <c r="E75">
-        <v>-0.01896157609387061</v>
+        <v>-0.014569301159897</v>
       </c>
       <c r="F75">
-        <v>-0.04556072236539345</v>
+        <v>-0.06668904686685785</v>
       </c>
       <c r="G75">
-        <v>0.08892509612146252</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.009309983353535483</v>
+      </c>
+      <c r="H75">
+        <v>-0.1300363641205181</v>
+      </c>
+      <c r="I75">
+        <v>0.04306628671836633</v>
+      </c>
+      <c r="J75">
+        <v>-0.03278234491105904</v>
+      </c>
+      <c r="K75">
+        <v>0.006367874592066155</v>
+      </c>
+      <c r="L75">
+        <v>0.02386325814370329</v>
+      </c>
+      <c r="M75">
+        <v>-0.0277845792463017</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1270990337521719</v>
+        <v>0.1085916464113606</v>
       </c>
       <c r="C76">
-        <v>-0.008834867652491382</v>
+        <v>-0.06713980816061163</v>
       </c>
       <c r="D76">
-        <v>-0.06246947110246028</v>
+        <v>0.04849781049633448</v>
       </c>
       <c r="E76">
-        <v>-0.01947545528877343</v>
+        <v>-0.01583431453322943</v>
       </c>
       <c r="F76">
-        <v>-0.006184451664015005</v>
+        <v>0.004017133028774891</v>
       </c>
       <c r="G76">
-        <v>0.1382135390628381</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.02789277274942145</v>
+      </c>
+      <c r="H76">
+        <v>-0.2270663901618806</v>
+      </c>
+      <c r="I76">
+        <v>0.07706314686882607</v>
+      </c>
+      <c r="J76">
+        <v>-0.04551130896827899</v>
+      </c>
+      <c r="K76">
+        <v>-0.0002577226951368564</v>
+      </c>
+      <c r="L76">
+        <v>0.01763049240836974</v>
+      </c>
+      <c r="M76">
+        <v>0.1055496117073287</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.1034764811152002</v>
+        <v>0.07707261040586724</v>
       </c>
       <c r="C77">
-        <v>-0.05358755757225026</v>
+        <v>-0.02086427686139381</v>
       </c>
       <c r="D77">
-        <v>0.08184796238102118</v>
+        <v>-0.0725974210672453</v>
       </c>
       <c r="E77">
-        <v>0.002089839666285463</v>
+        <v>0.119588807773089</v>
       </c>
       <c r="F77">
-        <v>0.3048270429188664</v>
+        <v>0.09993039495661718</v>
       </c>
       <c r="G77">
-        <v>0.5215502331095284</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.6496949919722931</v>
+      </c>
+      <c r="H77">
+        <v>0.3040556302324726</v>
+      </c>
+      <c r="I77">
+        <v>0.508401374279192</v>
+      </c>
+      <c r="J77">
+        <v>0.03301120147660973</v>
+      </c>
+      <c r="K77">
+        <v>-0.09097480854192272</v>
+      </c>
+      <c r="L77">
+        <v>0.01870104769445053</v>
+      </c>
+      <c r="M77">
+        <v>0.03649671906295503</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1253819695397968</v>
+        <v>0.1639319109419735</v>
       </c>
       <c r="C78">
-        <v>-0.09930336963939768</v>
+        <v>-0.1071832734973889</v>
       </c>
       <c r="D78">
-        <v>-0.04572714279922083</v>
+        <v>-0.04998407851596191</v>
       </c>
       <c r="E78">
-        <v>-0.0277232658487854</v>
+        <v>0.147398485543307</v>
       </c>
       <c r="F78">
-        <v>0.1074212299242554</v>
+        <v>0.14835472550208</v>
       </c>
       <c r="G78">
-        <v>-0.07558497204984117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.0242999570182187</v>
+      </c>
+      <c r="H78">
+        <v>0.07761601204237453</v>
+      </c>
+      <c r="I78">
+        <v>-0.1031778108691538</v>
+      </c>
+      <c r="J78">
+        <v>0.1678984424451278</v>
+      </c>
+      <c r="K78">
+        <v>0.2942129673575504</v>
+      </c>
+      <c r="L78">
+        <v>0.389906890706457</v>
+      </c>
+      <c r="M78">
+        <v>-0.3316087583085331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1306999180889767</v>
+        <v>0.1323233576561288</v>
       </c>
       <c r="C79">
-        <v>-0.02015015635986056</v>
+        <v>-0.06179312453088259</v>
       </c>
       <c r="D79">
-        <v>-0.08290473077236879</v>
+        <v>0.03941808701613366</v>
       </c>
       <c r="E79">
-        <v>-0.01092070689164974</v>
+        <v>-0.01905998101278925</v>
       </c>
       <c r="F79">
-        <v>-0.04607732829295202</v>
+        <v>0.03401902037027842</v>
       </c>
       <c r="G79">
-        <v>0.136214206788161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.006952364832363882</v>
+      </c>
+      <c r="H79">
+        <v>-0.1831578432130365</v>
+      </c>
+      <c r="I79">
+        <v>0.08907902278615021</v>
+      </c>
+      <c r="J79">
+        <v>-0.05833659057436989</v>
+      </c>
+      <c r="K79">
+        <v>0.02739298825351942</v>
+      </c>
+      <c r="L79">
+        <v>0.02174492842866979</v>
+      </c>
+      <c r="M79">
+        <v>0.02669770761787203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.02704831112871722</v>
+        <v>0.04040511215869939</v>
       </c>
       <c r="C80">
-        <v>-0.02053908946627025</v>
+        <v>-0.01556528243221484</v>
       </c>
       <c r="D80">
-        <v>-0.01025372884821031</v>
+        <v>0.05859042548860827</v>
       </c>
       <c r="E80">
-        <v>-0.004854219063766304</v>
+        <v>-0.02595731251179089</v>
       </c>
       <c r="F80">
-        <v>0.01515459518572097</v>
+        <v>0.005712752228232146</v>
       </c>
       <c r="G80">
-        <v>0.001758865899153633</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.02150511088583002</v>
+      </c>
+      <c r="H80">
+        <v>0.01960138352152898</v>
+      </c>
+      <c r="I80">
+        <v>-0.1143686588221701</v>
+      </c>
+      <c r="J80">
+        <v>0.02974354432539465</v>
+      </c>
+      <c r="K80">
+        <v>-0.006998907594649944</v>
+      </c>
+      <c r="L80">
+        <v>0.0191264118535297</v>
+      </c>
+      <c r="M80">
+        <v>-0.0003253356525167273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1130868079992804</v>
+        <v>0.1203604826549235</v>
       </c>
       <c r="C81">
-        <v>-0.01976116935560143</v>
+        <v>-0.04497306304533197</v>
       </c>
       <c r="D81">
-        <v>-0.06573871218554879</v>
+        <v>0.03113831737793325</v>
       </c>
       <c r="E81">
-        <v>-0.02750996954235906</v>
+        <v>-0.01038993727810484</v>
       </c>
       <c r="F81">
-        <v>-0.02145166744854786</v>
+        <v>0.03227932640496534</v>
       </c>
       <c r="G81">
-        <v>0.08107405676863108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.001035764142942369</v>
+      </c>
+      <c r="H81">
+        <v>-0.1691318696521702</v>
+      </c>
+      <c r="I81">
+        <v>0.03770531803640537</v>
+      </c>
+      <c r="J81">
+        <v>-0.0001504822878596071</v>
+      </c>
+      <c r="K81">
+        <v>-0.04255394786882774</v>
+      </c>
+      <c r="L81">
+        <v>-0.03383768737033473</v>
+      </c>
+      <c r="M81">
+        <v>-0.08784080106964179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1141039587152221</v>
+        <v>0.1172955748921865</v>
       </c>
       <c r="C82">
-        <v>-0.02900666353329217</v>
+        <v>-0.05096563919044073</v>
       </c>
       <c r="D82">
-        <v>-0.04372869461281555</v>
+        <v>0.03487389911675789</v>
       </c>
       <c r="E82">
-        <v>-0.04581486111433466</v>
+        <v>-0.02642022283281538</v>
       </c>
       <c r="F82">
-        <v>-0.07972331622367601</v>
+        <v>-0.01955320630541311</v>
       </c>
       <c r="G82">
-        <v>0.1994457399258129</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.01777003866222985</v>
+      </c>
+      <c r="H82">
+        <v>-0.2656937240531997</v>
+      </c>
+      <c r="I82">
+        <v>0.07599652917549529</v>
+      </c>
+      <c r="J82">
+        <v>0.0353456026166129</v>
+      </c>
+      <c r="K82">
+        <v>0.004411815975277876</v>
+      </c>
+      <c r="L82">
+        <v>-0.03571698262612856</v>
+      </c>
+      <c r="M82">
+        <v>0.04788730573994213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.06332641504852281</v>
+        <v>0.07918349532414037</v>
       </c>
       <c r="C83">
-        <v>-0.04284707606287804</v>
+        <v>-0.05637829449617855</v>
       </c>
       <c r="D83">
-        <v>0.07684000941989962</v>
+        <v>-0.002306976500134206</v>
       </c>
       <c r="E83">
-        <v>-0.01930900164760366</v>
+        <v>0.01333253647722214</v>
       </c>
       <c r="F83">
-        <v>-0.08409012271383892</v>
+        <v>-0.1041385879968808</v>
       </c>
       <c r="G83">
-        <v>-0.07648142822483715</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03479002428193002</v>
+      </c>
+      <c r="H83">
+        <v>0.02859168928985269</v>
+      </c>
+      <c r="I83">
+        <v>-0.05699649368292485</v>
+      </c>
+      <c r="J83">
+        <v>0.04460095852956408</v>
+      </c>
+      <c r="K83">
+        <v>0.06316041191400786</v>
+      </c>
+      <c r="L83">
+        <v>-0.009149520012582308</v>
+      </c>
+      <c r="M83">
+        <v>0.04165407972160131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05994291806639548</v>
+        <v>0.04323098572225741</v>
       </c>
       <c r="C84">
-        <v>-0.0316326527039795</v>
+        <v>0.01963892388543678</v>
       </c>
       <c r="D84">
-        <v>-0.02395906837950569</v>
+        <v>-0.03869781363772216</v>
       </c>
       <c r="E84">
-        <v>0.01322194246014553</v>
+        <v>-0.001909088829405521</v>
       </c>
       <c r="F84">
-        <v>-0.0004461971737264062</v>
+        <v>0.02363269912891499</v>
       </c>
       <c r="G84">
-        <v>-0.1004082486604704</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.08655175577155526</v>
+      </c>
+      <c r="H84">
+        <v>0.1488042674840449</v>
+      </c>
+      <c r="I84">
+        <v>-0.1930900643838261</v>
+      </c>
+      <c r="J84">
+        <v>0.2244008487643878</v>
+      </c>
+      <c r="K84">
+        <v>0.2619861642593882</v>
+      </c>
+      <c r="L84">
+        <v>0.2386371800142986</v>
+      </c>
+      <c r="M84">
+        <v>0.5672813181723214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.08555189348771623</v>
+        <v>0.1088138665544279</v>
       </c>
       <c r="C85">
-        <v>-0.04115637839337368</v>
+        <v>-0.05065960276961159</v>
       </c>
       <c r="D85">
-        <v>-0.01738770022911318</v>
+        <v>0.04254188641542037</v>
       </c>
       <c r="E85">
-        <v>-0.05229363729789085</v>
+        <v>0.02129797610417309</v>
       </c>
       <c r="F85">
-        <v>-0.01456174569407425</v>
+        <v>-0.00335523583289922</v>
       </c>
       <c r="G85">
-        <v>0.1147147426196323</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.007817066827037129</v>
+      </c>
+      <c r="H85">
+        <v>-0.1841954664469086</v>
+      </c>
+      <c r="I85">
+        <v>0.0543576162619971</v>
+      </c>
+      <c r="J85">
+        <v>-0.04690883413018311</v>
+      </c>
+      <c r="K85">
+        <v>0.02309919096812344</v>
+      </c>
+      <c r="L85">
+        <v>0.03440300989923097</v>
+      </c>
+      <c r="M85">
+        <v>-0.01454835900562131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.0525701311395682</v>
+        <v>0.0671634289148995</v>
       </c>
       <c r="C86">
-        <v>-0.07217788676161561</v>
+        <v>-0.01999012339700504</v>
       </c>
       <c r="D86">
-        <v>-0.007178219938772645</v>
+        <v>-0.01889717271873172</v>
       </c>
       <c r="E86">
-        <v>-0.009211740098144393</v>
+        <v>0.04597108950912799</v>
       </c>
       <c r="F86">
-        <v>0.0250303931358428</v>
+        <v>0.02843829197678142</v>
       </c>
       <c r="G86">
-        <v>0.01406781219133536</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.02307458696738774</v>
+      </c>
+      <c r="H86">
+        <v>0.08875764609611697</v>
+      </c>
+      <c r="I86">
+        <v>-0.08734827713525378</v>
+      </c>
+      <c r="J86">
+        <v>0.2082126152179161</v>
+      </c>
+      <c r="K86">
+        <v>0.3069490680452363</v>
+      </c>
+      <c r="L86">
+        <v>0.2788487077045271</v>
+      </c>
+      <c r="M86">
+        <v>0.0737019045430027</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09156726365025959</v>
+        <v>0.1133295453693618</v>
       </c>
       <c r="C87">
-        <v>-0.06353264243064105</v>
+        <v>-0.06654026552853477</v>
       </c>
       <c r="D87">
-        <v>-0.0406198957895923</v>
+        <v>-0.01286746605120695</v>
       </c>
       <c r="E87">
-        <v>-0.01631422877133551</v>
+        <v>0.05055050508553974</v>
       </c>
       <c r="F87">
-        <v>0.1860335037446196</v>
+        <v>0.1480990538223117</v>
       </c>
       <c r="G87">
-        <v>0.10437381588678</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.1538177671573058</v>
+      </c>
+      <c r="H87">
+        <v>0.146783351518971</v>
+      </c>
+      <c r="I87">
+        <v>0.06398539380812378</v>
+      </c>
+      <c r="J87">
+        <v>0.06455274735347709</v>
+      </c>
+      <c r="K87">
+        <v>-0.005296499111531857</v>
+      </c>
+      <c r="L87">
+        <v>-0.06337050988704108</v>
+      </c>
+      <c r="M87">
+        <v>-0.002551207198859271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.04251447788012665</v>
+        <v>0.05728036102608849</v>
       </c>
       <c r="C88">
-        <v>-0.02884680839670319</v>
+        <v>-0.04895623785882194</v>
       </c>
       <c r="D88">
-        <v>-0.01872407182211439</v>
+        <v>0.03705144006623945</v>
       </c>
       <c r="E88">
-        <v>-0.0119399641921028</v>
+        <v>-0.0009555345222593964</v>
       </c>
       <c r="F88">
-        <v>0.005246496388421574</v>
+        <v>0.02089038738951179</v>
       </c>
       <c r="G88">
-        <v>-0.01557744509554236</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02268919356955033</v>
+      </c>
+      <c r="H88">
+        <v>-0.01967261077480773</v>
+      </c>
+      <c r="I88">
+        <v>-0.05294176133885507</v>
+      </c>
+      <c r="J88">
+        <v>0.03508437348004496</v>
+      </c>
+      <c r="K88">
+        <v>-0.02061504670587948</v>
+      </c>
+      <c r="L88">
+        <v>-0.01734826697421642</v>
+      </c>
+      <c r="M88">
+        <v>-0.0176468692600657</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1524401036584569</v>
+        <v>0.2114219817688467</v>
       </c>
       <c r="C89">
-        <v>0.297196447300262</v>
+        <v>0.3573843932640294</v>
       </c>
       <c r="D89">
-        <v>0.08432362425756613</v>
+        <v>0.009540840858735791</v>
       </c>
       <c r="E89">
-        <v>-0.1139909500642121</v>
+        <v>0.09814483283573144</v>
       </c>
       <c r="F89">
-        <v>0.06958306601612768</v>
+        <v>-0.01424058638468162</v>
       </c>
       <c r="G89">
-        <v>-0.03892124206688282</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.007063620449751485</v>
+      </c>
+      <c r="H89">
+        <v>-0.01291518537881142</v>
+      </c>
+      <c r="I89">
+        <v>-0.04758498005129928</v>
+      </c>
+      <c r="J89">
+        <v>0.0420715574378183</v>
+      </c>
+      <c r="K89">
+        <v>-0.0883067756957916</v>
+      </c>
+      <c r="L89">
+        <v>-0.03552195226695658</v>
+      </c>
+      <c r="M89">
+        <v>-0.1282816686501048</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1220255252648771</v>
+        <v>0.1450496856350393</v>
       </c>
       <c r="C90">
-        <v>0.2626294744414649</v>
+        <v>0.2672410076429041</v>
       </c>
       <c r="D90">
-        <v>0.07194128522555206</v>
+        <v>-0.01257437735432577</v>
       </c>
       <c r="E90">
-        <v>-0.04861753655013702</v>
+        <v>0.03879591509622018</v>
       </c>
       <c r="F90">
-        <v>0.07485076296823713</v>
+        <v>0.006351385801021013</v>
       </c>
       <c r="G90">
-        <v>-0.04724554006221763</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02218905401356944</v>
+      </c>
+      <c r="H90">
+        <v>0.03087004500860309</v>
+      </c>
+      <c r="I90">
+        <v>-0.02979599809576759</v>
+      </c>
+      <c r="J90">
+        <v>0.009833752491283832</v>
+      </c>
+      <c r="K90">
+        <v>-0.04096896509204812</v>
+      </c>
+      <c r="L90">
+        <v>-0.004877681009467264</v>
+      </c>
+      <c r="M90">
+        <v>0.07817877970503315</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08638369058174128</v>
+        <v>0.07663029925683136</v>
       </c>
       <c r="C91">
-        <v>-0.01904322642944442</v>
+        <v>-0.04912489225259283</v>
       </c>
       <c r="D91">
-        <v>-0.01274881248216538</v>
+        <v>0.004023522770836623</v>
       </c>
       <c r="E91">
-        <v>-0.009041196821690925</v>
+        <v>-0.003890677518492843</v>
       </c>
       <c r="F91">
-        <v>-0.01129985772550453</v>
+        <v>-0.03273002566613759</v>
       </c>
       <c r="G91">
-        <v>0.0529879146755776</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.011536258909434</v>
+      </c>
+      <c r="H91">
+        <v>-0.09616552232168192</v>
+      </c>
+      <c r="I91">
+        <v>0.03838614190183787</v>
+      </c>
+      <c r="J91">
+        <v>-0.02688262190506013</v>
+      </c>
+      <c r="K91">
+        <v>-0.02461736657338585</v>
+      </c>
+      <c r="L91">
+        <v>0.02831737135649746</v>
+      </c>
+      <c r="M91">
+        <v>-0.009897794811737614</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1267162405602436</v>
+        <v>0.1559848306497156</v>
       </c>
       <c r="C92">
-        <v>0.3129477033479078</v>
+        <v>0.3099459117411617</v>
       </c>
       <c r="D92">
-        <v>0.04460749813540518</v>
+        <v>-0.008410533125212952</v>
       </c>
       <c r="E92">
-        <v>-0.08541972888092424</v>
+        <v>0.05189194983495055</v>
       </c>
       <c r="F92">
-        <v>0.0228898493741358</v>
+        <v>0.01350698378224585</v>
       </c>
       <c r="G92">
-        <v>-0.07993089590441618</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.02701552494891118</v>
+      </c>
+      <c r="H92">
+        <v>-0.03977584525666709</v>
+      </c>
+      <c r="I92">
+        <v>-0.02930805561735648</v>
+      </c>
+      <c r="J92">
+        <v>0.02542167034479669</v>
+      </c>
+      <c r="K92">
+        <v>-0.03382300541879246</v>
+      </c>
+      <c r="L92">
+        <v>-0.008339167195734682</v>
+      </c>
+      <c r="M92">
+        <v>-0.04217397573421645</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1160549059734514</v>
+        <v>0.1540412343718288</v>
       </c>
       <c r="C93">
-        <v>0.2533458216575991</v>
+        <v>0.2937630793283836</v>
       </c>
       <c r="D93">
-        <v>0.03086594316675634</v>
+        <v>0.002623824202474909</v>
       </c>
       <c r="E93">
-        <v>-0.04717930218591553</v>
+        <v>0.01843590328069186</v>
       </c>
       <c r="F93">
-        <v>0.03224396014362529</v>
+        <v>0.006444135853806694</v>
       </c>
       <c r="G93">
-        <v>-0.04251175645122727</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.01195852721712313</v>
+      </c>
+      <c r="H93">
+        <v>0.0171708833982603</v>
+      </c>
+      <c r="I93">
+        <v>-0.01099978033752781</v>
+      </c>
+      <c r="J93">
+        <v>0.006266081861953542</v>
+      </c>
+      <c r="K93">
+        <v>0.02491556417320031</v>
+      </c>
+      <c r="L93">
+        <v>-0.02691218313214072</v>
+      </c>
+      <c r="M93">
+        <v>0.04888083762656849</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.091418817420133</v>
+        <v>0.1041956550235635</v>
       </c>
       <c r="C94">
-        <v>-0.05893869343118939</v>
+        <v>-0.07523680948403132</v>
       </c>
       <c r="D94">
-        <v>-0.008625277781728972</v>
+        <v>0.01189477115614699</v>
       </c>
       <c r="E94">
-        <v>-0.02593225558666306</v>
+        <v>0.01789711164340747</v>
       </c>
       <c r="F94">
-        <v>-0.01340751314760194</v>
+        <v>-0.04289455803331357</v>
       </c>
       <c r="G94">
-        <v>0.07634413247519159</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.04014015127485651</v>
+      </c>
+      <c r="H94">
+        <v>-0.1265866861187276</v>
+      </c>
+      <c r="I94">
+        <v>0.01800737125727648</v>
+      </c>
+      <c r="J94">
+        <v>-0.04058692314915225</v>
+      </c>
+      <c r="K94">
+        <v>-0.01724743853714643</v>
+      </c>
+      <c r="L94">
+        <v>0.02846410168788157</v>
+      </c>
+      <c r="M94">
+        <v>0.02421288877683256</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.1039150477976264</v>
+        <v>0.1303809744827225</v>
       </c>
       <c r="C95">
-        <v>-0.1098627030028233</v>
+        <v>-0.0733568854322541</v>
       </c>
       <c r="D95">
-        <v>-0.07607891795972735</v>
+        <v>0.01732119740732583</v>
       </c>
       <c r="E95">
-        <v>-0.0828764817227353</v>
+        <v>0.0690274260772545</v>
       </c>
       <c r="F95">
-        <v>0.008459971448581686</v>
+        <v>0.07059429324251922</v>
       </c>
       <c r="G95">
-        <v>-0.01794851860269082</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.006901519578104016</v>
+      </c>
+      <c r="H95">
+        <v>0.1602857209093858</v>
+      </c>
+      <c r="I95">
+        <v>-0.1093631257610788</v>
+      </c>
+      <c r="J95">
+        <v>0.03171301547864575</v>
+      </c>
+      <c r="K95">
+        <v>-0.02332837614106214</v>
+      </c>
+      <c r="L95">
+        <v>0.01562184048397721</v>
+      </c>
+      <c r="M95">
+        <v>-0.1037975028305661</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4636,151 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.2984791290872855</v>
+        <v>0.1838385295380867</v>
       </c>
       <c r="C97">
-        <v>0.0918897443218613</v>
+        <v>0.005638284333943851</v>
       </c>
       <c r="D97">
-        <v>-0.06089843968785001</v>
+        <v>-0.509970502885872</v>
       </c>
       <c r="E97">
-        <v>0.8772285831911696</v>
+        <v>-0.7792131575342979</v>
       </c>
       <c r="F97">
-        <v>-0.03908465462934661</v>
+        <v>0.1085747513504865</v>
       </c>
       <c r="G97">
-        <v>-0.08823390490622671</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.02025128123769843</v>
+      </c>
+      <c r="H97">
+        <v>0.07154054179389024</v>
+      </c>
+      <c r="I97">
+        <v>-0.04938243769252035</v>
+      </c>
+      <c r="J97">
+        <v>0.06473733929665781</v>
+      </c>
+      <c r="K97">
+        <v>-0.07220170491143979</v>
+      </c>
+      <c r="L97">
+        <v>0.01572038034808574</v>
+      </c>
+      <c r="M97">
+        <v>-0.04189438398861341</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2599368847492879</v>
+        <v>0.2631057520716341</v>
       </c>
       <c r="C98">
-        <v>-0.08918944224929599</v>
+        <v>-0.1208184558570536</v>
       </c>
       <c r="D98">
-        <v>-0.01444804506171478</v>
+        <v>0.1601990754800741</v>
       </c>
       <c r="E98">
-        <v>-0.1199746606484357</v>
+        <v>-0.1195114773430581</v>
       </c>
       <c r="F98">
-        <v>-0.4988497754409474</v>
+        <v>-0.3364632832660481</v>
       </c>
       <c r="G98">
-        <v>-0.3936838655179852</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1997683264903802</v>
+      </c>
+      <c r="H98">
+        <v>0.2809130999850306</v>
+      </c>
+      <c r="I98">
+        <v>0.1052823618903773</v>
+      </c>
+      <c r="J98">
+        <v>0.100979243880208</v>
+      </c>
+      <c r="K98">
+        <v>0.3353579084001216</v>
+      </c>
+      <c r="L98">
+        <v>-0.5280476642395281</v>
+      </c>
+      <c r="M98">
+        <v>-0.1575785773832828</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.2335465654324292</v>
+        <v>0.1339855984047318</v>
       </c>
       <c r="C99">
-        <v>-0.2085545607270619</v>
+        <v>-0.1003507799509634</v>
       </c>
       <c r="D99">
-        <v>0.778773877767594</v>
+        <v>-0.2878541272282598</v>
       </c>
       <c r="E99">
-        <v>0.02484183694160523</v>
+        <v>0.115869651427096</v>
       </c>
       <c r="F99">
-        <v>-0.3186562306851136</v>
+        <v>-0.7412440996230116</v>
       </c>
       <c r="G99">
-        <v>0.229873950694329</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.2808185636661799</v>
+      </c>
+      <c r="H99">
+        <v>-0.1053348042174148</v>
+      </c>
+      <c r="I99">
+        <v>-0.04511733089798291</v>
+      </c>
+      <c r="J99">
+        <v>0.01837822708478737</v>
+      </c>
+      <c r="K99">
+        <v>0.08740945825788161</v>
+      </c>
+      <c r="L99">
+        <v>0.1589549825176323</v>
+      </c>
+      <c r="M99">
+        <v>-0.01719050673717966</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,33 +4800,69 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.04556664369829001</v>
+        <v>0.04548427227453806</v>
       </c>
       <c r="C101">
-        <v>-0.002476733291607461</v>
+        <v>-0.01956737779923124</v>
       </c>
       <c r="D101">
-        <v>-0.01889923326292168</v>
+        <v>0.00773755955015614</v>
       </c>
       <c r="E101">
-        <v>-0.01230912152168759</v>
+        <v>0.02238680837285227</v>
       </c>
       <c r="F101">
-        <v>0.03665376163275375</v>
+        <v>0.04424641102751935</v>
       </c>
       <c r="G101">
-        <v>-0.01404852189859019</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.02140349356879079</v>
+      </c>
+      <c r="H101">
+        <v>-0.04614171298295716</v>
+      </c>
+      <c r="I101">
+        <v>-0.05128739725389679</v>
+      </c>
+      <c r="J101">
+        <v>-0.0006381548461648417</v>
+      </c>
+      <c r="K101">
+        <v>0.02239297879356816</v>
+      </c>
+      <c r="L101">
+        <v>-0.01382912478263416</v>
+      </c>
+      <c r="M101">
+        <v>0.00115619898706088</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4882,28 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4923,28 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4962,24 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
